--- a/Table/Datas/EventData.xlsx
+++ b/Table/Datas/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7536BE-4894-49C6-963C-A3366E3C0D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8398D35F-F9B4-465C-B072-1E17FA129824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -60,6 +60,38 @@
   </si>
   <si>
     <t>별사냥 게임입니다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bannerPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggleImgPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Painting_Landscape_1/Textures/Paintings/Australia/T_Landscape_Australia_01.T_Landscape_Australia_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/UI/HUD/Event/WBP_EventBanner_Default.WBP_EventBanner_Default</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Painting_Landscape_1/Textures/Paintings/Bahamas/T_Landscape_Bahamas_01.T_Landscape_Bahamas_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/UI/HUD/Event/WBP_EventTicket.WBP_EventTicket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>별의 선물</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>별의 선물입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -444,9 +476,11 @@
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +490,14 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,8 +507,14 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -478,8 +524,14 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -489,8 +541,14 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>10011</v>
       </c>
@@ -499,6 +557,29 @@
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>10012</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Datas/EventData.xlsx
+++ b/Table/Datas/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8398D35F-F9B4-465C-B072-1E17FA129824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD239D-1749-4165-99AA-B81CE23A9EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26625" yWindow="495" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>별의 선물입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tarray&lt;int32&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardItems</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,10 +489,10 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="106.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="104.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +508,11 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,8 +528,11 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -530,8 +548,11 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -547,8 +568,11 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>10011</v>
       </c>
@@ -564,8 +588,11 @@
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>10012</v>
       </c>
@@ -580,6 +607,9 @@
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Datas/EventData.xlsx
+++ b/Table/Datas/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD239D-1749-4165-99AA-B81CE23A9EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05980BAE-28B3-4710-946B-17C7649C4A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26625" yWindow="495" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27465" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/Game/UI/HUD/Event/WBP_EventTicket.WBP_EventTicket</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>별의 선물</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -103,7 +99,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>/Game/UI/HUD/Event/WBP_EventBanner_Ticket.WBP_EventBanner_Ticket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +484,7 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -549,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -569,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -597,19 +601,19 @@
         <v>10012</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Datas/EventData.xlsx
+++ b/Table/Datas/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05980BAE-28B3-4710-946B-17C7649C4A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8246030E-5854-40D1-BE6C-C1F9B2B1A7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27465" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24465" yWindow="1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -493,7 +493,8 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="106.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="104.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/Table/Datas/EventData.xlsx
+++ b/Table/Datas/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8246030E-5854-40D1-BE6C-C1F9B2B1A7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33436D45-D5C6-4641-A8E8-A7E9FF13CE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24465" yWindow="1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24270" yWindow="2280" windowWidth="21600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -108,6 +108,29 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>openType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConentsOpen</t>
+  </si>
+  <si>
+    <t>EventOpenType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>openValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +222,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -481,23 +507,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="106.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="104.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +542,14 @@
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,8 +568,14 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -548,16 +586,22 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -568,16 +612,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>10011</v>
       </c>
@@ -587,17 +637,21 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>10012</v>
       </c>
@@ -607,13 +661,19 @@
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Table/Datas/EventData.xlsx
+++ b/Table/Datas/EventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33436D45-D5C6-4641-A8E8-A7E9FF13CE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D492D3-B960-4389-860A-DEC6FCB467FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24270" yWindow="2280" windowWidth="21600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24615" yWindow="1935" windowWidth="21600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>NONE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>openPageImgPath</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,11 +523,11 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="17.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="106.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="104.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="104.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,8 +552,11 @@
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,8 +581,11 @@
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,10 +608,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -624,10 +637,13 @@
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>10011</v>
       </c>
@@ -648,10 +664,13 @@
         <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>10012</v>
       </c>
@@ -674,6 +693,9 @@
         <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
